--- a/Packages/ThermoClassifier/ThermoClassifier/data/Phases.xlsx
+++ b/Packages/ThermoClassifier/ThermoClassifier/data/Phases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Montanuni\Masterarbeit\5_Programmcodes\Packages\ThermoClassifier\ThermoClassifier\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Montanuni\Masterarbeit\5 Programmcodes\packages\thermoclassifier\thermoclassifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82E257-63C9-4310-AC20-3773046FD542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69932E8-D5B1-40F8-9CA2-E0E932A07285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Ag</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>OMEGA</t>
   </si>
 </sst>
 </file>
@@ -749,10 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY34"/>
+  <dimension ref="A1:CA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP23" sqref="AP23"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CA35" sqref="CA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +770,7 @@
     <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -771,229 +781,235 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="CA1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1022,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1046,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1055,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -1073,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1091,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1103,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -1118,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1</v>
@@ -1130,19 +1146,19 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -1169,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -1187,16 +1203,16 @@
         <v>1</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
         <v>1</v>
@@ -1205,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>1</v>
@@ -1225,8 +1241,14 @@
       <c r="BY2">
         <v>1</v>
       </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1426,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
         <v>1</v>
@@ -1458,8 +1480,14 @@
       <c r="BY3">
         <v>1</v>
       </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -1470,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1488,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1518,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -1551,10 +1579,10 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1569,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1584,37 +1612,37 @@
         <v>1</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>1</v>
@@ -1626,19 +1654,19 @@
         <v>1</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>1</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>1</v>
@@ -1659,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>1</v>
@@ -1691,8 +1719,14 @@
       <c r="BY4">
         <v>1</v>
       </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -1721,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1769,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -1790,10 +1824,10 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1802,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -1868,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -1892,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
         <v>1</v>
@@ -1904,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>1</v>
@@ -1924,8 +1958,14 @@
       <c r="BY5">
         <v>1</v>
       </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -1951,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1990,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2008,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2047,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2065,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2095,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -2110,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2131,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -2155,10 +2195,16 @@
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2199,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2259,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2280,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2337,16 +2383,16 @@
         <v>0</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2364,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7">
         <v>0</v>
@@ -2376,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -2388,10 +2434,16 @@
         <v>0</v>
       </c>
       <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2435,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2456,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2474,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2492,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2570,16 +2622,16 @@
         <v>0</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2621,10 +2673,16 @@
         <v>0</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -2641,22 +2699,22 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2689,16 +2747,16 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2803,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9">
         <v>0</v>
@@ -2830,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9">
         <v>0</v>
@@ -2854,10 +2912,16 @@
         <v>0</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -2898,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2958,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2979,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3036,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="BH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -3063,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10">
         <v>0</v>
@@ -3075,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -3087,10 +3151,16 @@
         <v>0</v>
       </c>
       <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3101,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3116,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3161,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3173,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -3224,19 +3294,19 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <v>1</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -3260,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -3275,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11">
         <v>0</v>
@@ -3320,10 +3390,16 @@
         <v>0</v>
       </c>
       <c r="BY11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3334,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3457,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3555,8 +3631,14 @@
       <c r="BY12">
         <v>0</v>
       </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -3567,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3594,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3639,19 +3721,19 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -3675,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -3702,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -3729,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -3741,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13">
         <v>0</v>
@@ -3788,8 +3870,14 @@
       <c r="BY13">
         <v>0</v>
       </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -3806,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4021,8 +4109,14 @@
       <c r="BY14">
         <v>0</v>
       </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -4039,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4051,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4254,8 +4348,14 @@
       <c r="BY15">
         <v>0</v>
       </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -4281,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4320,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -4332,16 +4432,16 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -4395,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -4407,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -4440,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16">
         <v>0</v>
@@ -4485,10 +4585,16 @@
         <v>0</v>
       </c>
       <c r="BY16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>1</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -4514,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4571,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -4628,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -4673,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17">
         <v>0</v>
@@ -4720,8 +4826,14 @@
       <c r="BY17">
         <v>0</v>
       </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -4756,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -4798,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -4861,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -4951,10 +5063,16 @@
         <v>0</v>
       </c>
       <c r="BY18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>1</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -5016,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -5169,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="BT19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV19">
         <v>0</v>
@@ -5186,8 +5304,14 @@
       <c r="BY19">
         <v>0</v>
       </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -5252,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -5419,8 +5543,14 @@
       <c r="BY20">
         <v>0</v>
       </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
@@ -5530,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -5652,8 +5782,14 @@
       <c r="BY21">
         <v>0</v>
       </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -5778,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5885,8 +6021,14 @@
       <c r="BY22">
         <v>0</v>
       </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6011,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6118,8 +6260,14 @@
       <c r="BY23">
         <v>0</v>
       </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -6247,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <v>0</v>
@@ -6351,8 +6499,14 @@
       <c r="BY24">
         <v>0</v>
       </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -6486,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6584,8 +6738,14 @@
       <c r="BY25">
         <v>0</v>
       </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -6722,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26">
         <v>0</v>
@@ -6817,8 +6977,14 @@
       <c r="BY26">
         <v>0</v>
       </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -6970,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -7050,8 +7216,14 @@
       <c r="BY27">
         <v>0</v>
       </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -7203,10 +7375,10 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -7283,8 +7455,14 @@
       <c r="BY28">
         <v>0</v>
       </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
@@ -7436,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -7516,8 +7694,14 @@
       <c r="BY29">
         <v>0</v>
       </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -7684,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
         <v>0</v>
@@ -7749,8 +7933,14 @@
       <c r="BY30">
         <v>0</v>
       </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -7917,10 +8107,10 @@
         <v>0</v>
       </c>
       <c r="BD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31">
         <v>0</v>
@@ -7982,8 +8172,14 @@
       <c r="BY31">
         <v>0</v>
       </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
@@ -8159,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI32">
         <v>0</v>
@@ -8183,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ32">
         <v>0</v>
@@ -8215,8 +8411,14 @@
       <c r="BY32">
         <v>0</v>
       </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -8398,10 +8600,10 @@
         <v>0</v>
       </c>
       <c r="BI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33">
         <v>0</v>
@@ -8448,8 +8650,14 @@
       <c r="BY33">
         <v>0</v>
       </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
@@ -8664,10 +8872,10 @@
         <v>0</v>
       </c>
       <c r="BT34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV34">
         <v>0</v>
@@ -8680,6 +8888,251 @@
       </c>
       <c r="BY34">
         <v>0</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BY35">
+        <v>0</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
